--- a/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BCB3AC-C184-4192-BBBE-9E8C055C2B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA63521-0AA6-4859-AB45-E85E884FE995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="1395" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
+    <workbookView xWindow="5865" yWindow="1395" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>губ</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Варшавская</t>
+  </si>
+  <si>
+    <t>v-чж-о</t>
+  </si>
+  <si>
+    <t>v-чж-о-diff</t>
   </si>
 </sst>
 </file>
@@ -405,12 +411,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,20 +752,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF2D5ED-C086-4B9A-AF7A-3CCA60AD96B2}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +783,14 @@
       <c r="F1" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -794,8 +809,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <f>SUM(D3:D58)-D27-D28-D42-D43-D54-D55</f>
+        <v>93442864</v>
+      </c>
+      <c r="I2" s="4">
+        <f>D2-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -815,7 +838,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -835,7 +858,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -855,7 +878,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -875,7 +898,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -895,7 +918,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -915,7 +938,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -935,7 +958,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -955,7 +978,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -975,7 +998,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1018,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1038,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1058,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1078,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1744,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1741,7 +1764,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1761,7 +1784,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1781,7 +1804,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1824,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1821,7 +1844,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1841,7 +1864,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -1864,7 +1887,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1884,7 +1907,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1904,7 +1927,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1924,7 +1947,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1943,8 +1966,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="4">
+        <f>SUM(D60:D71)-D61-D62</f>
+        <v>9402253</v>
+      </c>
+      <c r="I59" s="4">
+        <f>D59-H59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1964,7 +1995,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1984,7 +2015,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -2007,7 +2038,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2027,7 +2058,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2047,7 +2078,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2067,7 +2098,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2087,7 +2118,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2107,7 +2138,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2127,7 +2158,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2147,7 +2178,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2167,7 +2198,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2187,7 +2218,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2206,8 +2237,16 @@
         <v>0</v>
       </c>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4">
+        <f>SUM(D73:D83)</f>
+        <v>9289364</v>
+      </c>
+      <c r="I72" s="4">
+        <f>D72-H72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2227,7 +2266,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2247,7 +2286,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2267,7 +2306,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2287,7 +2326,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2307,7 +2346,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2327,7 +2366,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2347,7 +2386,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2367,7 +2406,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2387,7 +2426,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2407,7 +2446,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2427,7 +2466,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2446,8 +2485,16 @@
         <v>0</v>
       </c>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="4">
+        <f>SUM(D85:D93)</f>
+        <v>5758822</v>
+      </c>
+      <c r="I84" s="4">
+        <f>D84-H84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2467,7 +2514,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2487,7 +2534,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2507,7 +2554,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2527,7 +2574,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2547,7 +2594,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2567,7 +2614,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2587,7 +2634,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2607,7 +2654,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2674,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2646,8 +2693,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="4">
+        <f>SUM(D95:D103)</f>
+        <v>7746718</v>
+      </c>
+      <c r="I94" s="4">
+        <f>D94-H94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2667,7 +2722,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>

--- a/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA63521-0AA6-4859-AB45-E85E884FE995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B57048-4E43-4A77-A058-5D52D9B6940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1395" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
+    <workbookView xWindow="1650" yWindow="1650" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Подольская</t>
   </si>
   <si>
-    <t>Пгатавская</t>
-  </si>
-  <si>
     <t>Псковская</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>v-чж-о-diff</t>
+  </si>
+  <si>
+    <t>Полтавская</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2">
         <f>B26-B27</f>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2">
         <v>1376539</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>539632</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>843559</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>1351438</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>1121048</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>692667</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2">
         <f>B41-B42</f>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>1174304</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>728909</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>720116</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>762804</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>1301723</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>795220</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>665910</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>1089801</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>1253759</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>1400981</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>216792</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2">
         <f>B53-B54</f>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>1118696</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>202409</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>460597</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>4712090</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>977948</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>342137</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
         <f>B60-B61</f>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>414488</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2">
         <v>373700</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
         <v>300487</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
         <v>589961</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2">
         <v>697096</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
         <v>275652</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
         <v>406449</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
         <v>287843</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>388466</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
         <v>4886713</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
         <v>458065</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2">
         <v>283279</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
         <v>480012</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
         <v>160571</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
         <v>973023</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
         <v>549504</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>444579</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2">
         <v>485568</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
         <v>575447</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
         <v>34776</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>441889</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
         <v>2964419</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
         <v>68269</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>298968</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>342543</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>274079</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>152061</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>20472</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>706498</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>961932</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>139597</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>4164551</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>354962</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>212638</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>472443</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
         <v>364988</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
         <v>529215</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
         <v>803411</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2">
         <v>238003</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2">
         <v>335972</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2">
         <v>852919</v>

--- a/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
+++ b/rtss-pre1917/src/main/resources/census-1897/census-1897.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\census-1897\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B57048-4E43-4A77-A058-5D52D9B6940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED044646-6B9D-45E9-BB49-967A8DE5AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1650" windowWidth="32535" windowHeight="20955" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{0CC79554-7499-452A-B074-39FD34D45BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>губ</t>
   </si>
@@ -362,6 +367,15 @@
   </si>
   <si>
     <t>Полтавская</t>
+  </si>
+  <si>
+    <t>Империя</t>
+  </si>
+  <si>
+    <t>Азиатская Россия</t>
+  </si>
+  <si>
+    <t>Европейская Poccия без Польши</t>
   </si>
 </sst>
 </file>
@@ -411,13 +425,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,9 +753,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -752,22 +767,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF2D5ED-C086-4B9A-AF7A-3CCA60AD96B2}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.15625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,86 +805,89 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>45749575</v>
-      </c>
-      <c r="C2" s="2">
-        <v>47693289</v>
-      </c>
-      <c r="D2" s="2">
-        <v>93442864</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="B2" s="6">
+        <f>B3+B60</f>
+        <v>50461665</v>
+      </c>
+      <c r="C2" s="6">
+        <f>C3+C60</f>
+        <v>52383452</v>
+      </c>
+      <c r="D2" s="6">
+        <f>D3+D60</f>
+        <v>102845117</v>
+      </c>
       <c r="F2" s="4">
         <f>B2+C2-D2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4">
-        <f>SUM(D3:D58)-D27-D28-D42-D43-D54-D55</f>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45749575</v>
+      </c>
+      <c r="C3" s="2">
+        <v>47693289</v>
+      </c>
+      <c r="D3" s="2">
         <v>93442864</v>
-      </c>
-      <c r="I2" s="4">
-        <f>D2-H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>163784</v>
-      </c>
-      <c r="C3" s="2">
-        <v>182752</v>
-      </c>
-      <c r="D3" s="2">
-        <v>346536</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F70" si="0">B3+C3-D3</f>
+        <f>B3+C3-D3</f>
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <f>SUM(D4:D59)-D28-D29-D43-D44-D55-D56</f>
+        <v>93442864</v>
+      </c>
+      <c r="I3" s="4">
+        <f>D3-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>513453</v>
+        <v>163784</v>
       </c>
       <c r="C4" s="2">
-        <v>490089</v>
+        <v>182752</v>
       </c>
       <c r="D4" s="2">
-        <v>1003542</v>
+        <v>346536</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F71" si="0">B4+C4-D4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>991239</v>
+        <v>513453</v>
       </c>
       <c r="C5" s="2">
-        <v>944173</v>
+        <v>490089</v>
       </c>
       <c r="D5" s="2">
-        <v>1935412</v>
+        <v>1003542</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
@@ -878,18 +896,18 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>790880</v>
+        <v>991239</v>
       </c>
       <c r="C6" s="2">
-        <v>800327</v>
+        <v>944173</v>
       </c>
       <c r="D6" s="2">
-        <v>1591207</v>
+        <v>1935412</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
@@ -898,18 +916,18 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>736882</v>
+        <v>790880</v>
       </c>
       <c r="C7" s="2">
-        <v>752364</v>
+        <v>800327</v>
       </c>
       <c r="D7" s="2">
-        <v>1489246</v>
+        <v>1591207</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
@@ -918,18 +936,18 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>690312</v>
+        <v>736882</v>
       </c>
       <c r="C8" s="2">
-        <v>825379</v>
+        <v>752364</v>
       </c>
       <c r="D8" s="2">
-        <v>1515691</v>
+        <v>1489246</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
@@ -938,18 +956,18 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>635664</v>
+        <v>690312</v>
       </c>
       <c r="C9" s="2">
-        <v>706121</v>
+        <v>825379</v>
       </c>
       <c r="D9" s="2">
-        <v>1341785</v>
+        <v>1515691</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
@@ -958,18 +976,18 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>1502803</v>
+        <v>635664</v>
       </c>
       <c r="C10" s="2">
-        <v>1486679</v>
+        <v>706121</v>
       </c>
       <c r="D10" s="2">
-        <v>2989482</v>
+        <v>1341785</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4">
@@ -978,18 +996,18 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>1251345</v>
+        <v>1502803</v>
       </c>
       <c r="C11" s="2">
-        <v>1279908</v>
+        <v>1486679</v>
       </c>
       <c r="D11" s="2">
-        <v>2531253</v>
+        <v>2989482</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4">
@@ -998,18 +1016,18 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>1426359</v>
+        <v>1251345</v>
       </c>
       <c r="C12" s="2">
-        <v>1604472</v>
+        <v>1279908</v>
       </c>
       <c r="D12" s="2">
-        <v>3030831</v>
+        <v>2531253</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4">
@@ -1018,18 +1036,18 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>815833</v>
+        <v>1426359</v>
       </c>
       <c r="C13" s="2">
-        <v>787576</v>
+        <v>1604472</v>
       </c>
       <c r="D13" s="2">
-        <v>1603409</v>
+        <v>3030831</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4">
@@ -1038,18 +1056,18 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>1294320</v>
+        <v>815833</v>
       </c>
       <c r="C14" s="2">
-        <v>1269918</v>
+        <v>787576</v>
       </c>
       <c r="D14" s="2">
-        <v>2564238</v>
+        <v>1603409</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4">
@@ -1058,18 +1076,18 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1091715</v>
+        <v>1294320</v>
       </c>
       <c r="C15" s="2">
-        <v>1021959</v>
+        <v>1269918</v>
       </c>
       <c r="D15" s="2">
-        <v>2113674</v>
+        <v>2564238</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4">
@@ -1078,18 +1096,18 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1059388</v>
+        <v>1091715</v>
       </c>
       <c r="C16" s="2">
-        <v>1111277</v>
+        <v>1021959</v>
       </c>
       <c r="D16" s="2">
-        <v>2170665</v>
+        <v>2113674</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4">
@@ -1098,18 +1116,18 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>501573</v>
+        <v>1059388</v>
       </c>
       <c r="C17" s="2">
-        <v>631270</v>
+        <v>1111277</v>
       </c>
       <c r="D17" s="2">
-        <v>1132843</v>
+        <v>2170665</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4">
@@ -1118,18 +1136,18 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>1767288</v>
+        <v>501573</v>
       </c>
       <c r="C18" s="2">
-        <v>1791941</v>
+        <v>631270</v>
       </c>
       <c r="D18" s="2">
-        <v>3559229</v>
+        <v>1132843</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4">
@@ -1138,18 +1156,18 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>752051</v>
+        <v>1767288</v>
       </c>
       <c r="C19" s="2">
-        <v>792513</v>
+        <v>1791941</v>
       </c>
       <c r="D19" s="2">
-        <v>1544564</v>
+        <v>3559229</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4">
@@ -1158,18 +1176,18 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>623103</v>
+        <v>752051</v>
       </c>
       <c r="C20" s="2">
-        <v>763912</v>
+        <v>792513</v>
       </c>
       <c r="D20" s="2">
-        <v>1387015</v>
+        <v>1544564</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4">
@@ -1178,18 +1196,18 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>326252</v>
+        <v>623103</v>
       </c>
       <c r="C21" s="2">
-        <v>347782</v>
+        <v>763912</v>
       </c>
       <c r="D21" s="2">
-        <v>674034</v>
+        <v>1387015</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4">
@@ -1198,18 +1216,18 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>1166190</v>
+        <v>326252</v>
       </c>
       <c r="C22" s="2">
-        <v>1204822</v>
+        <v>347782</v>
       </c>
       <c r="D22" s="2">
-        <v>2371012</v>
+        <v>674034</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4">
@@ -1218,18 +1236,18 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>629992</v>
+        <v>1166190</v>
       </c>
       <c r="C23" s="2">
-        <v>669373</v>
+        <v>1204822</v>
       </c>
       <c r="D23" s="2">
-        <v>1299365</v>
+        <v>2371012</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4">
@@ -1238,18 +1256,18 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>1069445</v>
+        <v>629992</v>
       </c>
       <c r="C24" s="2">
-        <v>1078176</v>
+        <v>669373</v>
       </c>
       <c r="D24" s="2">
-        <v>2147621</v>
+        <v>1299365</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -1258,18 +1276,18 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>827690</v>
+        <v>1069445</v>
       </c>
       <c r="C25" s="2">
-        <v>859074</v>
+        <v>1078176</v>
       </c>
       <c r="D25" s="2">
-        <v>1686764</v>
+        <v>2147621</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
@@ -1278,18 +1296,18 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>1219267</v>
+        <v>827690</v>
       </c>
       <c r="C26" s="2">
-        <v>1211314</v>
+        <v>859074</v>
       </c>
       <c r="D26" s="2">
-        <v>2430581</v>
+        <v>1686764</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4">
@@ -1298,18 +1316,18 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>591852</v>
+        <v>1219267</v>
       </c>
       <c r="C27" s="2">
-        <v>446739</v>
+        <v>1211314</v>
       </c>
       <c r="D27" s="2">
-        <v>1038591</v>
+        <v>2430581</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4">
@@ -1318,21 +1336,18 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <f>B26-B27</f>
-        <v>627415</v>
+        <v>591852</v>
       </c>
       <c r="C28" s="2">
-        <f>C26-C27</f>
-        <v>764575</v>
+        <v>446739</v>
       </c>
       <c r="D28" s="2">
-        <f>D26-D27</f>
-        <v>1391990</v>
+        <v>1038591</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4">
@@ -1341,18 +1356,21 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2">
-        <v>744467</v>
+        <f>B27-B28</f>
+        <v>627415</v>
       </c>
       <c r="C29" s="2">
-        <v>840307</v>
+        <f>C27-C28</f>
+        <v>764575</v>
       </c>
       <c r="D29" s="2">
-        <v>1584774</v>
+        <f>D27-D28</f>
+        <v>1391990</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="4">
@@ -1361,18 +1379,18 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>651901</v>
+        <v>744467</v>
       </c>
       <c r="C30" s="2">
-        <v>715121</v>
+        <v>840307</v>
       </c>
       <c r="D30" s="2">
-        <v>1367022</v>
+        <v>1584774</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4">
@@ -1381,18 +1399,18 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>171718</v>
+        <v>651901</v>
       </c>
       <c r="C31" s="2">
-        <v>192438</v>
+        <v>715121</v>
       </c>
       <c r="D31" s="2">
-        <v>364156</v>
+        <v>1367022</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
@@ -1401,18 +1419,18 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>793771</v>
+        <v>171718</v>
       </c>
       <c r="C32" s="2">
-        <v>806374</v>
+        <v>192438</v>
       </c>
       <c r="D32" s="2">
-        <v>1600145</v>
+        <v>364156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4">
@@ -1421,18 +1439,18 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>983327</v>
+        <v>793771</v>
       </c>
       <c r="C33" s="2">
-        <v>1050471</v>
+        <v>806374</v>
       </c>
       <c r="D33" s="2">
-        <v>2033798</v>
+        <v>1600145</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4">
@@ -1441,18 +1459,18 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>704054</v>
+        <v>983327</v>
       </c>
       <c r="C34" s="2">
-        <v>766420</v>
+        <v>1050471</v>
       </c>
       <c r="D34" s="2">
-        <v>1470474</v>
+        <v>2033798</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4">
@@ -1461,18 +1479,18 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1440124</v>
+        <v>704054</v>
       </c>
       <c r="C35" s="2">
-        <v>1554178</v>
+        <v>766420</v>
       </c>
       <c r="D35" s="2">
-        <v>2994302</v>
+        <v>1470474</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
@@ -1481,18 +1499,18 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1505940</v>
+        <v>1440124</v>
       </c>
       <c r="C36" s="2">
-        <v>1512359</v>
+        <v>1554178</v>
       </c>
       <c r="D36" s="2">
-        <v>3018299</v>
+        <v>2994302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4">
@@ -1501,18 +1519,18 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1376539</v>
+        <v>1505940</v>
       </c>
       <c r="C37" s="2">
-        <v>1401612</v>
+        <v>1512359</v>
       </c>
       <c r="D37" s="2">
-        <v>2778151</v>
+        <v>3018299</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4">
@@ -1521,18 +1539,18 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2">
-        <v>539632</v>
+        <v>1376539</v>
       </c>
       <c r="C38" s="2">
-        <v>582685</v>
+        <v>1401612</v>
       </c>
       <c r="D38" s="2">
-        <v>1122317</v>
+        <v>2778151</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4">
@@ -1541,18 +1559,18 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>843559</v>
+        <v>539632</v>
       </c>
       <c r="C39" s="2">
-        <v>958637</v>
+        <v>582685</v>
       </c>
       <c r="D39" s="2">
-        <v>1802196</v>
+        <v>1122317</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4">
@@ -1561,18 +1579,18 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>1351438</v>
+        <v>843559</v>
       </c>
       <c r="C40" s="2">
-        <v>1399898</v>
+        <v>958637</v>
       </c>
       <c r="D40" s="2">
-        <v>2751336</v>
+        <v>1802196</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
@@ -1581,18 +1599,18 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>1121048</v>
+        <v>1351438</v>
       </c>
       <c r="C41" s="2">
-        <v>990985</v>
+        <v>1399898</v>
       </c>
       <c r="D41" s="2">
-        <v>2112033</v>
+        <v>2751336</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
@@ -1601,18 +1619,18 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>692667</v>
+        <v>1121048</v>
       </c>
       <c r="C42" s="2">
-        <v>572253</v>
+        <v>990985</v>
       </c>
       <c r="D42" s="2">
-        <v>1264920</v>
+        <v>2112033</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4">
@@ -1621,61 +1639,61 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f>B41-B42</f>
-        <v>428381</v>
+        <v>692667</v>
       </c>
       <c r="C43" s="2">
-        <f>C41-C42</f>
-        <v>418732</v>
+        <v>572253</v>
       </c>
       <c r="D43" s="2">
-        <f>D41-D42</f>
-        <v>847113</v>
+        <v>1264920</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4">
-        <f t="shared" ref="F43" si="1">B43+C43-D43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2">
-        <v>1174304</v>
+        <f>B42-B43</f>
+        <v>428381</v>
       </c>
       <c r="C44" s="2">
-        <v>1231525</v>
+        <f>C42-C43</f>
+        <v>418732</v>
       </c>
       <c r="D44" s="2">
-        <v>2405829</v>
+        <f>D42-D43</f>
+        <v>847113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F44" si="1">B44+C44-D44</f>
         <v>0</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>728909</v>
+        <v>1174304</v>
       </c>
       <c r="C45" s="2">
-        <v>798939</v>
+        <v>1231525</v>
       </c>
       <c r="D45" s="2">
-        <v>1527848</v>
+        <v>2405829</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4">
@@ -1684,18 +1702,18 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>720116</v>
+        <v>728909</v>
       </c>
       <c r="C46" s="2">
-        <v>805163</v>
+        <v>798939</v>
       </c>
       <c r="D46" s="2">
-        <v>1525279</v>
+        <v>1527848</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
@@ -1704,18 +1722,18 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>762804</v>
+        <v>720116</v>
       </c>
       <c r="C47" s="2">
-        <v>684986</v>
+        <v>805163</v>
       </c>
       <c r="D47" s="2">
-        <v>1447790</v>
+        <v>1525279</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
@@ -1724,18 +1742,18 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>1301723</v>
+        <v>762804</v>
       </c>
       <c r="C48" s="2">
-        <v>1382307</v>
+        <v>684986</v>
       </c>
       <c r="D48" s="2">
-        <v>2684030</v>
+        <v>1447790</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4">
@@ -1744,18 +1762,18 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>795220</v>
+        <v>1301723</v>
       </c>
       <c r="C49" s="2">
-        <v>973915</v>
+        <v>1382307</v>
       </c>
       <c r="D49" s="2">
-        <v>1769135</v>
+        <v>2684030</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4">
@@ -1764,18 +1782,18 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>665910</v>
+        <v>795220</v>
       </c>
       <c r="C50" s="2">
-        <v>753546</v>
+        <v>973915</v>
       </c>
       <c r="D50" s="2">
-        <v>1419456</v>
+        <v>1769135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
@@ -1784,18 +1802,18 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>1089801</v>
+        <v>665910</v>
       </c>
       <c r="C51" s="2">
-        <v>1106841</v>
+        <v>753546</v>
       </c>
       <c r="D51" s="2">
-        <v>2196642</v>
+        <v>1419456</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4">
@@ -1804,18 +1822,18 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>1253759</v>
+        <v>1089801</v>
       </c>
       <c r="C52" s="2">
-        <v>1238557</v>
+        <v>1106841</v>
       </c>
       <c r="D52" s="2">
-        <v>2492316</v>
+        <v>2196642</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4">
@@ -1824,18 +1842,18 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>1400981</v>
+        <v>1253759</v>
       </c>
       <c r="C53" s="2">
-        <v>1332631</v>
+        <v>1238557</v>
       </c>
       <c r="D53" s="2">
-        <v>2733612</v>
+        <v>2492316</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4">
@@ -1844,18 +1862,18 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>216792</v>
+        <v>1400981</v>
       </c>
       <c r="C54" s="2">
-        <v>187023</v>
+        <v>1332631</v>
       </c>
       <c r="D54" s="2">
-        <v>403815</v>
+        <v>2733612</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
@@ -1864,61 +1882,61 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
-        <f>B53-B54</f>
-        <v>1184189</v>
+        <v>216792</v>
       </c>
       <c r="C55" s="2">
-        <f>C53-C54</f>
-        <v>1145608</v>
+        <v>187023</v>
       </c>
       <c r="D55" s="2">
-        <f>D53-D54</f>
-        <v>2329797</v>
+        <v>403815</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
-        <f t="shared" ref="F55" si="2">B55+C55-D55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2">
-        <v>1118696</v>
+        <f>B54-B55</f>
+        <v>1184189</v>
       </c>
       <c r="C56" s="2">
-        <v>1179158</v>
+        <f>C54-C55</f>
+        <v>1145608</v>
       </c>
       <c r="D56" s="2">
-        <v>2297854</v>
+        <f>D54-D55</f>
+        <v>2329797</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F56" si="2">B56+C56-D56</f>
         <v>0</v>
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2">
-        <v>202409</v>
+        <v>1118696</v>
       </c>
       <c r="C57" s="2">
-        <v>210307</v>
+        <v>1179158</v>
       </c>
       <c r="D57" s="2">
-        <v>412716</v>
+        <v>2297854</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="4">
@@ -1927,18 +1945,18 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
-        <v>460597</v>
+        <v>202409</v>
       </c>
       <c r="C58" s="2">
-        <v>610758</v>
+        <v>210307</v>
       </c>
       <c r="D58" s="2">
-        <v>1071355</v>
+        <v>412716</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
@@ -1947,18 +1965,18 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
-        <v>4712090</v>
+        <v>460597</v>
       </c>
       <c r="C59" s="2">
-        <v>4690163</v>
+        <v>610758</v>
       </c>
       <c r="D59" s="2">
-        <v>9402253</v>
+        <v>1071355</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
@@ -1966,27 +1984,19 @@
         <v>0</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="4">
-        <f>SUM(D60:D71)-D61-D62</f>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4712090</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4690163</v>
+      </c>
+      <c r="D60" s="2">
         <v>9402253</v>
-      </c>
-      <c r="I59" s="4">
-        <f>D59-H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>977948</v>
-      </c>
-      <c r="C60" s="2">
-        <v>953919</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1931867</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
@@ -1994,19 +2004,27 @@
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="4">
+        <f>SUM(D61:D72)-D62-D63</f>
+        <v>9402253</v>
+      </c>
+      <c r="I60" s="4">
+        <f>D60-H60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2">
-        <v>342137</v>
+        <v>977948</v>
       </c>
       <c r="C61" s="2">
-        <v>341555</v>
+        <v>953919</v>
       </c>
       <c r="D61" s="2">
-        <v>683692</v>
+        <v>1931867</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4">
@@ -2015,61 +2033,61 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2">
-        <f>B60-B61</f>
-        <v>635811</v>
+        <v>342137</v>
       </c>
       <c r="C62" s="2">
-        <f>C60-C61</f>
-        <v>612364</v>
+        <v>341555</v>
       </c>
       <c r="D62" s="2">
-        <f>D60-D61</f>
-        <v>1248175</v>
+        <v>683692</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4">
-        <f t="shared" ref="F62" si="3">B62+C62-D62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2">
-        <v>414488</v>
+        <f>B61-B62</f>
+        <v>635811</v>
       </c>
       <c r="C63" s="2">
-        <v>426109</v>
+        <f>C61-C62</f>
+        <v>612364</v>
       </c>
       <c r="D63" s="2">
-        <v>840597</v>
+        <f>D61-D62</f>
+        <v>1248175</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F63" si="3">B63+C63-D63</f>
         <v>0</v>
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2">
-        <v>373700</v>
+        <v>414488</v>
       </c>
       <c r="C64" s="2">
-        <v>388295</v>
+        <v>426109</v>
       </c>
       <c r="D64" s="2">
-        <v>761995</v>
+        <v>840597</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4">
@@ -2078,18 +2096,18 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2">
-        <v>300487</v>
+        <v>373700</v>
       </c>
       <c r="C65" s="2">
-        <v>279105</v>
+        <v>388295</v>
       </c>
       <c r="D65" s="2">
-        <v>579592</v>
+        <v>761995</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="4">
@@ -2098,18 +2116,18 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2">
-        <v>589961</v>
+        <v>300487</v>
       </c>
       <c r="C66" s="2">
-        <v>570701</v>
+        <v>279105</v>
       </c>
       <c r="D66" s="2">
-        <v>1160662</v>
+        <v>579592</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="4">
@@ -2118,18 +2136,18 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>697096</v>
+        <v>589961</v>
       </c>
       <c r="C67" s="2">
-        <v>706805</v>
+        <v>570701</v>
       </c>
       <c r="D67" s="2">
-        <v>1403901</v>
+        <v>1160662</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
@@ -2138,18 +2156,18 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
-        <v>275652</v>
+        <v>697096</v>
       </c>
       <c r="C68" s="2">
-        <v>277981</v>
+        <v>706805</v>
       </c>
       <c r="D68" s="2">
-        <v>553633</v>
+        <v>1403901</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="4">
@@ -2158,18 +2176,18 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2">
-        <v>406449</v>
+        <v>275652</v>
       </c>
       <c r="C69" s="2">
-        <v>408498</v>
+        <v>277981</v>
       </c>
       <c r="D69" s="2">
-        <v>814947</v>
+        <v>553633</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="4">
@@ -2178,18 +2196,18 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="2">
-        <v>287843</v>
+        <v>406449</v>
       </c>
       <c r="C70" s="2">
-        <v>295070</v>
+        <v>408498</v>
       </c>
       <c r="D70" s="2">
-        <v>582913</v>
+        <v>814947</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4">
@@ -2198,66 +2216,58 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
-        <v>388466</v>
+        <v>287843</v>
       </c>
       <c r="C71" s="2">
-        <v>383680</v>
+        <v>295070</v>
       </c>
       <c r="D71" s="2">
-        <v>772146</v>
+        <v>582913</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="4">
-        <f t="shared" ref="F71:F103" si="4">B71+C71-D71</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
-        <v>4886713</v>
+        <v>388466</v>
       </c>
       <c r="C72" s="2">
-        <v>4402651</v>
+        <v>383680</v>
       </c>
       <c r="D72" s="2">
-        <v>9289364</v>
+        <v>772146</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F72:F106" si="4">B72+C72-D72</f>
         <v>0</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="4">
-        <f>SUM(D73:D83)</f>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4886713</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4402651</v>
+      </c>
+      <c r="D73" s="2">
         <v>9289364</v>
-      </c>
-      <c r="I72" s="4">
-        <f>D72-H72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2">
-        <v>458065</v>
-      </c>
-      <c r="C73" s="2">
-        <v>368651</v>
-      </c>
-      <c r="D73" s="2">
-        <v>826716</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4">
@@ -2265,19 +2275,27 @@
         <v>0</v>
       </c>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="4">
+        <f>SUM(D74:D84)</f>
+        <v>9289364</v>
+      </c>
+      <c r="I73" s="4">
+        <f>D73-H73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2">
-        <v>283279</v>
+        <v>458065</v>
       </c>
       <c r="C74" s="2">
-        <v>287875</v>
+        <v>368651</v>
       </c>
       <c r="D74" s="2">
-        <v>571154</v>
+        <v>826716</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
@@ -2286,18 +2304,18 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2">
-        <v>480012</v>
+        <v>283279</v>
       </c>
       <c r="C75" s="2">
-        <v>398403</v>
+        <v>287875</v>
       </c>
       <c r="D75" s="2">
-        <v>878415</v>
+        <v>571154</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4">
@@ -2306,18 +2324,18 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
-        <v>160571</v>
+        <v>480012</v>
       </c>
       <c r="C76" s="2">
-        <v>130083</v>
+        <v>398403</v>
       </c>
       <c r="D76" s="2">
-        <v>290654</v>
+        <v>878415</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4">
@@ -2326,18 +2344,18 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
-        <v>973023</v>
+        <v>160571</v>
       </c>
       <c r="C77" s="2">
-        <v>945858</v>
+        <v>130083</v>
       </c>
       <c r="D77" s="2">
-        <v>1918881</v>
+        <v>290654</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4">
@@ -2346,18 +2364,18 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
-        <v>549504</v>
+        <v>973023</v>
       </c>
       <c r="C78" s="2">
-        <v>508737</v>
+        <v>945858</v>
       </c>
       <c r="D78" s="2">
-        <v>1058241</v>
+        <v>1918881</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
@@ -2366,18 +2384,18 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
-        <v>444579</v>
+        <v>549504</v>
       </c>
       <c r="C79" s="2">
-        <v>428722</v>
+        <v>508737</v>
       </c>
       <c r="D79" s="2">
-        <v>873301</v>
+        <v>1058241</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4">
@@ -2386,18 +2404,18 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
-        <v>485568</v>
+        <v>444579</v>
       </c>
       <c r="C80" s="2">
-        <v>448368</v>
+        <v>428722</v>
       </c>
       <c r="D80" s="2">
-        <v>933936</v>
+        <v>873301</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
@@ -2406,18 +2424,18 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
-        <v>575447</v>
+        <v>485568</v>
       </c>
       <c r="C81" s="2">
-        <v>475585</v>
+        <v>448368</v>
       </c>
       <c r="D81" s="2">
-        <v>1051032</v>
+        <v>933936</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4">
@@ -2426,18 +2444,18 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
-        <v>34776</v>
+        <v>575447</v>
       </c>
       <c r="C82" s="2">
-        <v>22702</v>
+        <v>475585</v>
       </c>
       <c r="D82" s="2">
-        <v>57478</v>
+        <v>1051032</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4">
@@ -2446,18 +2464,18 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
-        <v>441889</v>
+        <v>34776</v>
       </c>
       <c r="C83" s="2">
-        <v>387667</v>
+        <v>22702</v>
       </c>
       <c r="D83" s="2">
-        <v>829556</v>
+        <v>57478</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -2466,18 +2484,18 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
-        <v>2964419</v>
+        <v>441889</v>
       </c>
       <c r="C84" s="2">
-        <v>2794403</v>
+        <v>387667</v>
       </c>
       <c r="D84" s="2">
-        <v>5758822</v>
+        <v>829556</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="4">
@@ -2485,27 +2503,19 @@
         <v>0</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="4">
-        <f>SUM(D85:D93)</f>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2964419</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2794403</v>
+      </c>
+      <c r="D85" s="2">
         <v>5758822</v>
-      </c>
-      <c r="I84" s="4">
-        <f>D84-H84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="2">
-        <v>68269</v>
-      </c>
-      <c r="C85" s="2">
-        <v>52037</v>
-      </c>
-      <c r="D85" s="2">
-        <v>120306</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="4">
@@ -2513,19 +2523,27 @@
         <v>0</v>
       </c>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="4">
+        <f>SUM(D86:D94)</f>
+        <v>5758822</v>
+      </c>
+      <c r="I85" s="4">
+        <f>D85-H85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2">
-        <v>298968</v>
+        <v>68269</v>
       </c>
       <c r="C86" s="2">
-        <v>271193</v>
+        <v>52037</v>
       </c>
       <c r="D86" s="2">
-        <v>570161</v>
+        <v>120306</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4">
@@ -2534,18 +2552,18 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
-        <v>342543</v>
+        <v>298968</v>
       </c>
       <c r="C87" s="2">
-        <v>329494</v>
+        <v>271193</v>
       </c>
       <c r="D87" s="2">
-        <v>672037</v>
+        <v>570161</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4">
@@ -2554,18 +2572,18 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
-        <v>274079</v>
+        <v>342543</v>
       </c>
       <c r="C88" s="2">
-        <v>240188</v>
+        <v>329494</v>
       </c>
       <c r="D88" s="2">
-        <v>514267</v>
+        <v>672037</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
@@ -2574,18 +2592,18 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
-        <v>152061</v>
+        <v>274079</v>
       </c>
       <c r="C89" s="2">
-        <v>71275</v>
+        <v>240188</v>
       </c>
       <c r="D89" s="2">
-        <v>223336</v>
+        <v>514267</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4">
@@ -2594,18 +2612,18 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
-        <v>20472</v>
+        <v>152061</v>
       </c>
       <c r="C90" s="2">
-        <v>7641</v>
+        <v>71275</v>
       </c>
       <c r="D90" s="2">
-        <v>28113</v>
+        <v>223336</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4">
@@ -2614,18 +2632,18 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2">
-        <v>706498</v>
+        <v>20472</v>
       </c>
       <c r="C91" s="2">
-        <v>726545</v>
+        <v>7641</v>
       </c>
       <c r="D91" s="2">
-        <v>1433043</v>
+        <v>28113</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
@@ -2634,18 +2652,18 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
-        <v>961932</v>
+        <v>706498</v>
       </c>
       <c r="C92" s="2">
-        <v>965747</v>
+        <v>726545</v>
       </c>
       <c r="D92" s="2">
-        <v>1927679</v>
+        <v>1433043</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="4">
@@ -2654,18 +2672,18 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
-        <v>139597</v>
+        <v>961932</v>
       </c>
       <c r="C93" s="2">
-        <v>130283</v>
+        <v>965747</v>
       </c>
       <c r="D93" s="2">
-        <v>269880</v>
+        <v>1927679</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="4">
@@ -2674,18 +2692,18 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2">
-        <v>4164551</v>
+        <v>139597</v>
       </c>
       <c r="C94" s="2">
-        <v>3582167</v>
+        <v>130283</v>
       </c>
       <c r="D94" s="2">
-        <v>7746718</v>
+        <v>269880</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="4">
@@ -2693,27 +2711,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="4">
-        <f>SUM(D95:D103)</f>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4164551</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3582167</v>
+      </c>
+      <c r="D95" s="2">
         <v>7746718</v>
-      </c>
-      <c r="I94" s="4">
-        <f>D94-H94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="2">
-        <v>354962</v>
-      </c>
-      <c r="C95" s="2">
-        <v>327646</v>
-      </c>
-      <c r="D95" s="2">
-        <v>682608</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4">
@@ -2721,19 +2731,27 @@
         <v>0</v>
       </c>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="4">
+        <f>SUM(D96:D104)</f>
+        <v>7746718</v>
+      </c>
+      <c r="I95" s="4">
+        <f>D95-H95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2">
-        <v>212638</v>
+        <v>354962</v>
       </c>
       <c r="C96" s="2">
-        <v>169849</v>
+        <v>327646</v>
       </c>
       <c r="D96" s="2">
-        <v>382487</v>
+        <v>682608</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4">
@@ -2742,18 +2760,18 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2">
-        <v>472443</v>
+        <v>212638</v>
       </c>
       <c r="C97" s="2">
-        <v>387578</v>
+        <v>169849</v>
       </c>
       <c r="D97" s="2">
-        <v>860021</v>
+        <v>382487</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="4">
@@ -2762,18 +2780,18 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
-        <v>364988</v>
+        <v>472443</v>
       </c>
       <c r="C98" s="2">
-        <v>319602</v>
+        <v>387578</v>
       </c>
       <c r="D98" s="2">
-        <v>684590</v>
+        <v>860021</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="4">
@@ -2782,18 +2800,18 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2">
-        <v>529215</v>
+        <v>364988</v>
       </c>
       <c r="C99" s="2">
-        <v>458648</v>
+        <v>319602</v>
       </c>
       <c r="D99" s="2">
-        <v>987863</v>
+        <v>684590</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="4">
@@ -2802,18 +2820,18 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2">
-        <v>803411</v>
+        <v>529215</v>
       </c>
       <c r="C100" s="2">
-        <v>674987</v>
+        <v>458648</v>
       </c>
       <c r="D100" s="2">
-        <v>1478398</v>
+        <v>987863</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="4">
@@ -2822,18 +2840,18 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2">
-        <v>238003</v>
+        <v>803411</v>
       </c>
       <c r="C101" s="2">
-        <v>215413</v>
+        <v>674987</v>
       </c>
       <c r="D101" s="2">
-        <v>453416</v>
+        <v>1478398</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4">
@@ -2842,18 +2860,18 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2">
-        <v>335972</v>
+        <v>238003</v>
       </c>
       <c r="C102" s="2">
-        <v>309149</v>
+        <v>215413</v>
       </c>
       <c r="D102" s="2">
-        <v>645121</v>
+        <v>453416</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="4">
@@ -2862,18 +2880,18 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2">
-        <v>852919</v>
+        <v>335972</v>
       </c>
       <c r="C103" s="2">
-        <v>719295</v>
+        <v>309149</v>
       </c>
       <c r="D103" s="2">
-        <v>1572214</v>
+        <v>645121</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="4">
@@ -2881,6 +2899,68 @@
         <v>0</v>
       </c>
       <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="2">
+        <v>852919</v>
+      </c>
+      <c r="C104" s="2">
+        <v>719295</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1572214</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="2">
+        <f>B73+B85+B95</f>
+        <v>12015683</v>
+      </c>
+      <c r="C105" s="2">
+        <f>C73+C85+C95</f>
+        <v>10779221</v>
+      </c>
+      <c r="D105" s="2">
+        <f>D73+D85+D95</f>
+        <v>22794904</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2">
+        <f>B2+B105</f>
+        <v>62477348</v>
+      </c>
+      <c r="C106" s="2">
+        <f>C2+C105</f>
+        <v>63162673</v>
+      </c>
+      <c r="D106" s="2">
+        <f>D2+D105</f>
+        <v>125640021</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
